--- a/src/data/permission-rules-filtered/all_permission_filtered.xlsx
+++ b/src/data/permission-rules-filtered/all_permission_filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>antecedents</t>
   </si>
@@ -37,28 +37,49 @@
     <t>conviction</t>
   </si>
   <si>
-    <t>frozenset({'WRITE_EXTERNAL_STORAGE', 'INTERNET'})</t>
-  </si>
-  <si>
-    <t>frozenset({'INTERNET', 'READ_EXTERNAL_STORAGE'})</t>
+    <t>antecedent_len</t>
+  </si>
+  <si>
+    <t>consequent_len</t>
+  </si>
+  <si>
+    <t>combo_len</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WAKE_LOCK'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'WAKE_LOCK'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'ACCESS_NETWORK_STATE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'WAKE_LOCK'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WAKE_LOCK', 'INTERNET'})</t>
   </si>
   <si>
     <t>frozenset({'WAKE_LOCK', 'INTERNET'})</t>
   </si>
   <si>
-    <t>frozenset({'INTERNET', 'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'READ_EXTERNAL_STORAGE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'WRITE_EXTERNAL_STORAGE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'WAKE_LOCK'})</t>
+    <t>frozenset({'INTERNET'})</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -416,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,120 +465,814 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0.9365671641791044</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1.010367577756833</v>
+      </c>
+      <c r="F2">
+        <v>0.009610297393628842</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0.6119402985074627</v>
-      </c>
-      <c r="D2">
-        <v>0.7800237812128419</v>
-      </c>
-      <c r="E2">
-        <v>1.224283299356027</v>
-      </c>
-      <c r="F2">
-        <v>0.1121047630318557</v>
-      </c>
-      <c r="G2">
-        <v>1.649601653892699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.010367577756833</v>
+      </c>
+      <c r="F3">
+        <v>0.008394652205390929</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>0.6119402985074627</v>
-      </c>
-      <c r="D3">
-        <v>0.9632892804698971</v>
-      </c>
-      <c r="E3">
-        <v>1.223514346757974</v>
-      </c>
-      <c r="F3">
-        <v>0.1117906270884384</v>
-      </c>
-      <c r="G3">
-        <v>5.793582089552246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0.8236940298507462</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.010367577756833</v>
+      </c>
+      <c r="F4">
+        <v>0.008452084261528103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D5">
+        <v>0.9988597491448118</v>
+      </c>
+      <c r="E5">
+        <v>1.021734399888586</v>
+      </c>
+      <c r="F5">
+        <v>0.01738276899086655</v>
+      </c>
+      <c r="G5">
+        <v>19.63432835820777</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>0.7182835820895522</v>
-      </c>
-      <c r="D4">
-        <v>0.7646474677259185</v>
-      </c>
-      <c r="E4">
-        <v>1.060416669343059</v>
-      </c>
-      <c r="F4">
-        <v>0.04092382072844725</v>
-      </c>
-      <c r="G4">
-        <v>1.185106902197871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.8236940298507462</v>
+      </c>
+      <c r="D6">
+        <v>0.998868778280543</v>
+      </c>
+      <c r="E6">
+        <v>1.020769618986408</v>
+      </c>
+      <c r="F6">
+        <v>0.01675971820004463</v>
+      </c>
+      <c r="G6">
+        <v>18.96641791044787</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D7">
+        <v>0.9988597491448118</v>
+      </c>
+      <c r="E7">
+        <v>1.020760391881066</v>
+      </c>
+      <c r="F7">
+        <v>0.01661961879037654</v>
+      </c>
+      <c r="G7">
+        <v>18.81623134328253</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0.9393656716417912</v>
+      </c>
+      <c r="D8">
+        <v>0.9990079365079364</v>
+      </c>
+      <c r="E8">
+        <v>1.009365228969376</v>
+      </c>
+      <c r="F8">
+        <v>0.008715749610158086</v>
+      </c>
+      <c r="G8">
+        <v>10.34328358208955</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D9">
+        <v>0.9920724801812004</v>
+      </c>
+      <c r="E9">
+        <v>1.056108936200841</v>
+      </c>
+      <c r="F9">
+        <v>0.04341428352639787</v>
+      </c>
+      <c r="G9">
+        <v>7.64858742004261</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D10">
+        <v>0.9920814479638008</v>
+      </c>
+      <c r="E10">
+        <v>1.055070746247217</v>
+      </c>
+      <c r="F10">
+        <v>0.042701603920695</v>
+      </c>
+      <c r="G10">
+        <v>7.539445628997887</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D11">
+        <v>0.9920724801812004</v>
+      </c>
+      <c r="E11">
+        <v>1.055061209081594</v>
+      </c>
+      <c r="F11">
+        <v>0.04264591222989522</v>
+      </c>
+      <c r="G11">
+        <v>7.530916844349644</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C12">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D12">
+        <v>0.9909502262443438</v>
+      </c>
+      <c r="E12">
+        <v>1.058066377025833</v>
+      </c>
+      <c r="F12">
+        <v>0.04484573401648473</v>
+      </c>
+      <c r="G12">
+        <v>7.009328358208896</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D13">
+        <v>0.9909502262443438</v>
+      </c>
+      <c r="E13">
+        <v>1.058066377025833</v>
+      </c>
+      <c r="F13">
+        <v>0.04484573401648473</v>
+      </c>
+      <c r="G13">
+        <v>7.009328358208896</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>0.7182835820895522</v>
-      </c>
-      <c r="D5">
-        <v>0.9961190168175936</v>
-      </c>
-      <c r="E5">
-        <v>1.059364668679028</v>
-      </c>
-      <c r="F5">
-        <v>0.04025116952550667</v>
-      </c>
-      <c r="G5">
-        <v>15.38308457711421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0.9365671641791044</v>
+      </c>
+      <c r="D14">
+        <v>0.996031746031746</v>
+      </c>
+      <c r="E14">
+        <v>1.017870382980011</v>
+      </c>
+      <c r="F14">
+        <v>0.01644297170862108</v>
+      </c>
+      <c r="G14">
+        <v>5.406716417910328</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0.9365671641791044</v>
+      </c>
+      <c r="D15">
+        <v>0.9580152671755724</v>
+      </c>
+      <c r="E15">
+        <v>1.01884163334545</v>
+      </c>
+      <c r="F15">
+        <v>0.01732011583871673</v>
+      </c>
+      <c r="G15">
+        <v>1.421981004070555</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.9365671641791044</v>
+      </c>
+      <c r="D16">
+        <v>0.9571020019065776</v>
+      </c>
+      <c r="E16">
+        <v>1.017870382980011</v>
+      </c>
+      <c r="F16">
+        <v>0.01644297170862108</v>
+      </c>
+      <c r="G16">
+        <v>1.391708126036483</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D17">
+        <v>0.8725099601593626</v>
+      </c>
+      <c r="E17">
+        <v>1.058066377025833</v>
+      </c>
+      <c r="F17">
+        <v>0.04484573401648473</v>
+      </c>
+      <c r="G17">
+        <v>1.37558302238806</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D18">
+        <v>0.8709036742800397</v>
+      </c>
+      <c r="E18">
+        <v>1.056118482837333</v>
+      </c>
+      <c r="F18">
+        <v>0.04347084539986634</v>
+      </c>
+      <c r="G18">
+        <v>1.358467278989667</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D19">
+        <v>0.8700396825396824</v>
+      </c>
+      <c r="E19">
+        <v>1.055070746247217</v>
+      </c>
+      <c r="F19">
+        <v>0.042701603920695</v>
+      </c>
+      <c r="G19">
+        <v>1.349436025976984</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D20">
+        <v>0.869047619047619</v>
+      </c>
+      <c r="E20">
+        <v>1.055061209081594</v>
+      </c>
+      <c r="F20">
+        <v>0.04264591222989522</v>
+      </c>
+      <c r="G20">
+        <v>1.346336499321573</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.9365671641791044</v>
+      </c>
+      <c r="D21">
+        <v>0.946277097078228</v>
+      </c>
+      <c r="E21">
+        <v>1.010367577756833</v>
+      </c>
+      <c r="F21">
+        <v>0.009610297393628842</v>
+      </c>
+      <c r="G21">
+        <v>1.180741031683686</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>0.8236940298507462</v>
+      </c>
+      <c r="D22">
+        <v>0.8425572519083969</v>
+      </c>
+      <c r="E22">
+        <v>1.021743635798418</v>
+      </c>
+      <c r="F22">
+        <v>0.01752895967921586</v>
+      </c>
+      <c r="G22">
+        <v>1.113885119855269</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>0.8236940298507462</v>
+      </c>
+      <c r="D23">
+        <v>0.8417540514775977</v>
+      </c>
+      <c r="E23">
+        <v>1.020769618986408</v>
+      </c>
+      <c r="F23">
+        <v>0.01675971820004463</v>
+      </c>
+      <c r="G23">
+        <v>1.108231433195469</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0.6184701492537313</v>
-      </c>
-      <c r="D6">
-        <v>0.9707174231332356</v>
-      </c>
-      <c r="E6">
-        <v>1.03337544945266</v>
-      </c>
-      <c r="F6">
-        <v>0.01997504316106036</v>
-      </c>
-      <c r="G6">
-        <v>2.070662313432835</v>
+      <c r="C24">
+        <v>0.8171641791044776</v>
+      </c>
+      <c r="D24">
+        <v>0.8350810295519543</v>
+      </c>
+      <c r="E24">
+        <v>1.020760391881066</v>
+      </c>
+      <c r="F24">
+        <v>0.01661961879037654</v>
+      </c>
+      <c r="G24">
+        <v>1.102983996203952</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>0.8246268656716418</v>
+      </c>
+      <c r="D25">
+        <v>0.8331762488218661</v>
+      </c>
+      <c r="E25">
+        <v>1.010367577756833</v>
+      </c>
+      <c r="F25">
+        <v>0.008461656270884355</v>
+      </c>
+      <c r="G25">
+        <v>1.051247997301627</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D26">
+        <v>0.826578699340245</v>
+      </c>
+      <c r="E26">
+        <v>1.010367577756833</v>
+      </c>
+      <c r="F26">
+        <v>0.008394652205390929</v>
+      </c>
+      <c r="G26">
+        <v>1.048907973718364</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
